--- a/Documents/Driver Carrier Shopping List 26.02.2025.xlsx
+++ b/Documents/Driver Carrier Shopping List 26.02.2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovmo\Documents\Bäumlihof 3A\Maturaarbeit\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovmo\Documents\GitHub\6-Axis-Robotarm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07136745-FEE4-4A15-977D-A578BEDD2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F721FC0-09D2-4CB9-889E-2821DE784EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -446,23 +446,23 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -506,7 +506,7 @@
         <v>3.56</v>
       </c>
       <c r="F2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2" si="0">D2*E2</f>
         <v>7.12</v>
       </c>
       <c r="H2">
@@ -518,7 +518,7 @@
         <v>35.381130000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -539,7 +539,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1.6800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -581,7 +581,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -623,7 +623,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -644,7 +644,7 @@
         <v>1.8399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -665,112 +665,112 @@
         <v>6.7200000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10">
-        <f t="shared" ref="F6:F11" si="0">D10*E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F10:F11" si="1">D10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F12">
-        <f t="shared" ref="F3:F25" si="1">D12*E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D13*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <f>D15*E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D16*E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D17*E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D19*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D20*E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D22*E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D23*E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+        <f>D24*E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f>D25*E25</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="www.digikey.ch" xr:uid="{DCB69177-7DE2-4518-8745-F12C9B0EEBC4}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2F366F63-804C-4BAD-8E28-D4EB41805A54}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B3F56DA-54E7-4B13-BDD7-FD1AEC103121}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{B6A9DD31-0896-4C3D-B1AE-C7B6860114B7}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E92EEB16-5867-4002-A1B3-946972117BE4}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{54899D89-BD91-4FA9-9FD2-D1BB5215DBA9}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{61916ADA-88A9-4DA8-8FBA-4B153F5184FE}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{0BEA6359-3EE8-40D3-9F0E-C2A026EBB6F1}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8B3F56DA-54E7-4B13-BDD7-FD1AEC103121}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{B6A9DD31-0896-4C3D-B1AE-C7B6860114B7}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{E92EEB16-5867-4002-A1B3-946972117BE4}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{54899D89-BD91-4FA9-9FD2-D1BB5215DBA9}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{61916ADA-88A9-4DA8-8FBA-4B153F5184FE}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{0BEA6359-3EE8-40D3-9F0E-C2A026EBB6F1}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{2F366F63-804C-4BAD-8E28-D4EB41805A54}"/>
+    <hyperlink ref="C2" r:id="rId8" display="www.digikey.ch" xr:uid="{DCB69177-7DE2-4518-8745-F12C9B0EEBC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
